--- a/RatingUniversity/Files/29_nalichie_informacii_o_vuze_v_internete.xlsx
+++ b/RatingUniversity/Files/29_nalichie_informacii_o_vuze_v_internete.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilechka\Desktop\last scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repositories\Raiting\RatingUniversity\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,6 +395,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -430,6 +447,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -585,7 +619,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,12 +684,14 @@
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
       <c r="D6" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
